--- a/Information/variables.xlsx
+++ b/Information/variables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
   <si>
     <t>Yactstats</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Absolute difference of LGPact stats as compared to scenario 1</t>
   </si>
   <si>
-    <t>LGPpactDeltastats</t>
-  </si>
-  <si>
     <t>maturitypotAll</t>
   </si>
   <si>
@@ -202,13 +199,64 @@
   </si>
   <si>
     <t xml:space="preserve">maturity date (actual) of  each scenario for each crop </t>
+  </si>
+  <si>
+    <t>MATactstats</t>
+  </si>
+  <si>
+    <t>Maturity (actual) stats for each crop and scenario over different cycles (These are derived from LGPact and not directly calculated)</t>
+  </si>
+  <si>
+    <t>MATactstatsg</t>
+  </si>
+  <si>
+    <t>2nd row=names of crop; 2nd row=data</t>
+  </si>
+  <si>
+    <t>1row, columns: median for different groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median maturity (actual) for each crop over different scenarios of each group </t>
+  </si>
+  <si>
+    <t>sowingstatsg</t>
+  </si>
+  <si>
+    <t>sowing stats for each crop over different scenarios of each group (each cycle and scenario the same, so no real stats)</t>
+  </si>
+  <si>
+    <t>MATpotstatsg</t>
+  </si>
+  <si>
+    <t>MATpotstats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median maturity (potential) for each crop over different scenarios of each group </t>
+  </si>
+  <si>
+    <t>Maturity (potential) stats for each crop and scenario over different cycles (These are derived from LGPpot and not directly calculated)</t>
+  </si>
+  <si>
+    <t>LGPactDeltastats</t>
+  </si>
+  <si>
+    <t>YactDeltastats2</t>
+  </si>
+  <si>
+    <t>absolute difference of yield stats as compared to scenario 1</t>
+  </si>
+  <si>
+    <t>Relative difference of WP stats as compared to scenario 1</t>
+  </si>
+  <si>
+    <t>WPDeltastats2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +271,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF79646"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,9 +311,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,18 +624,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.5703125" bestFit="1" customWidth="1"/>
@@ -629,41 +711,41 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -672,15 +754,15 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -692,12 +774,29 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -706,32 +805,15 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -740,15 +822,32 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
-        <v>24</v>
+      <c r="E14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -757,83 +856,83 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -842,15 +941,15 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -862,80 +961,97 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -947,12 +1063,12 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -961,32 +1077,32 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -998,7 +1114,92 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1021,12 +1222,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Information/variables.xlsx
+++ b/Information/variables.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ACHydro_scenario" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="General" sheetId="2" r:id="rId1"/>
+    <sheet name="ACHydro_scenario" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="179">
   <si>
     <t>Yactstats</t>
   </si>
@@ -207,18 +206,12 @@
     <t>Maturity (actual) stats for each crop and scenario over different cycles (These are derived from LGPact and not directly calculated)</t>
   </si>
   <si>
-    <t>MATactstatsg</t>
-  </si>
-  <si>
     <t>2nd row=names of crop; 2nd row=data</t>
   </si>
   <si>
     <t>1row, columns: median for different groups</t>
   </si>
   <si>
-    <t xml:space="preserve">median maturity (actual) for each crop over different scenarios of each group </t>
-  </si>
-  <si>
     <t>sowingstatsg</t>
   </si>
   <si>
@@ -250,13 +243,322 @@
   </si>
   <si>
     <t>WPDeltastats2</t>
+  </si>
+  <si>
+    <t>ton/ha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units </t>
+  </si>
+  <si>
+    <t>kg/m³</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>LGPgap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference between LGPpot en LGPact of  each scenario for each crop </t>
+  </si>
+  <si>
+    <t>LGPgapstats</t>
+  </si>
+  <si>
+    <t>LGPgap stats for each crop and scenario over different cycles</t>
+  </si>
+  <si>
+    <t>LGPgapDeltastats</t>
+  </si>
+  <si>
+    <t>Absolute difference of LGPgap stats as compared to scenario 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>mm/day</t>
+  </si>
+  <si>
+    <t>rows: different timesteps (days), columns: different scenarios</t>
+  </si>
+  <si>
+    <t>daily rainfall for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>day number  for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>month number for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>year number for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>date for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>daily minimum temperature for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>daily maximum temperature for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>reference evapotranspiration for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>2nd row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>3rd row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>4th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>5th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>6th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>7th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>8th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>9th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>10th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>11th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>12th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>13th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>14th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>15th row=names of simulation units; 2nd row=data</t>
+  </si>
+  <si>
+    <t>°C/day</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tmin</t>
+  </si>
+  <si>
+    <t>Tmax</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Eto</t>
+  </si>
+  <si>
+    <t>TrCatch</t>
+  </si>
+  <si>
+    <t>TrxCatch</t>
+  </si>
+  <si>
+    <t>Ecatch</t>
+  </si>
+  <si>
+    <t>ExCatch</t>
+  </si>
+  <si>
+    <t>ETaCatch</t>
+  </si>
+  <si>
+    <t>ETxCatch</t>
+  </si>
+  <si>
+    <t>ROCatch</t>
+  </si>
+  <si>
+    <t>DPCatch</t>
+  </si>
+  <si>
+    <t>CRCatch</t>
+  </si>
+  <si>
+    <t>BundWatCatch</t>
+  </si>
+  <si>
+    <t>Wr2Catch</t>
+  </si>
+  <si>
+    <t>CCCatch</t>
+  </si>
+  <si>
+    <t>Tr</t>
+  </si>
+  <si>
+    <t>Trx</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Ex</t>
+  </si>
+  <si>
+    <t>Eta</t>
+  </si>
+  <si>
+    <t>Etx</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>BundWat</t>
+  </si>
+  <si>
+    <t>Wr2</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>GDD</t>
+  </si>
+  <si>
+    <t>ton/ha/day</t>
+  </si>
+  <si>
+    <t>Crop transpiration (actual) in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Potential (maximum) crop transpiration  in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Evaporation(actual) in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Potential (maximum) evaporation in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Actual evapotranspiration in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Potential (maximum) evapotranspiration in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Surface runoff in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Deep percolation in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Capilary rise in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Water between bunds in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Soil water content in 2 m soil depth in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Canopy Cover  in total catchment for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Crop transpiration (actual)  in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Potential (maximum) crop transpiration in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Evaporation(actual) in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Potential (maximum) evaporation in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Actual evapotranspiration in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Potential (maximum) evapotranspiration in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Surface runoff in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Deep percolation in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Capilary rise in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Water between bunds in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Soil water content in 2 m soil depth in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Canopy Cover in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Dry aboveground biomass accummulated in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>Growing degree days accumulated on that day in each land unit for each timestep and scenario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,31 +574,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFF79646"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -311,25 +601,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,713 +899,1414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
         <v>34</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>69</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
         <v>7</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
         <v>7</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
         <v>34</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
         <v>34</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" t="s">
-        <v>66</v>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:9">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Information/variables.xlsx
+++ b/Information/variables.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="190">
   <si>
     <t>Yactstats</t>
   </si>
@@ -89,9 +89,6 @@
     <t>TSIDeltastats</t>
   </si>
   <si>
-    <t>Absolute difference ofDSI stats as compared to scenario 1</t>
-  </si>
-  <si>
     <t>Absolute difference of DSI stats as compared to scenario 1</t>
   </si>
   <si>
@@ -149,12 +146,6 @@
     <t>yield of each crop in each cyle(average over different landunits in catchment)</t>
   </si>
   <si>
-    <t>WPET of each crop in each cyle(average over different landunits in catchment)</t>
-  </si>
-  <si>
-    <t>DSI of each crop in each cyle(average over different landunits in catchment)</t>
-  </si>
-  <si>
     <t>TSI of each crop in each cyle(average over different landunits in catchment)</t>
   </si>
   <si>
@@ -552,6 +543,48 @@
   </si>
   <si>
     <t>Growing degree days accumulated on that day in each land unit for each timestep and scenario</t>
+  </si>
+  <si>
+    <t>WSI</t>
+  </si>
+  <si>
+    <t>WSIstats</t>
+  </si>
+  <si>
+    <t>WSIDeltastats</t>
+  </si>
+  <si>
+    <t>BWSI</t>
+  </si>
+  <si>
+    <t>BWSIstats</t>
+  </si>
+  <si>
+    <t>BWSIDeltastats</t>
+  </si>
+  <si>
+    <t>WSI stats for each crop over different cyles</t>
+  </si>
+  <si>
+    <t>Absolute difference of WSI stats as compared to scenario 1</t>
+  </si>
+  <si>
+    <t>BWSI stats for each crop over different cyles</t>
+  </si>
+  <si>
+    <t>Absolute difference of BWSI stats as compared to scenario 1</t>
+  </si>
+  <si>
+    <t>ET Crop water productivity of each crop in each cyle(average over different landunits in catchment)</t>
+  </si>
+  <si>
+    <t>Drought stress index of each crop in each cyle(average over different landunits in catchment)</t>
+  </si>
+  <si>
+    <t>Water stress index of each crop in each cyle(average over different landunits in catchment)</t>
+  </si>
+  <si>
+    <t>Biomass water stress index of each crop in each cyle(average over different landunits in catchment)</t>
   </si>
 </sst>
 </file>
@@ -902,10 +935,10 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -920,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -937,647 +970,647 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
         <v>93</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1587,13 +1620,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1610,7 +1643,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -1630,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1639,10 +1672,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1650,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1662,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1670,7 +1703,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1687,10 +1720,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1702,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1710,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1719,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1730,7 +1763,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -1739,10 +1772,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1750,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1762,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1770,7 +1803,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1782,15 +1815,15 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
         <v>75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1810,7 +1843,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1819,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1830,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1842,7 +1875,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1850,7 +1883,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -1867,10 +1900,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1879,18 +1912,18 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1902,15 +1935,15 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1922,35 +1955,35 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1959,18 +1992,18 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1982,55 +2015,55 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -2039,58 +2072,58 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -2099,18 +2132,18 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -2119,38 +2152,38 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>69</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -2159,18 +2192,18 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -2179,38 +2212,38 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -2219,58 +2252,58 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
         <v>61</v>
       </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" t="s">
-        <v>85</v>
+      <c r="F41" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -2279,18 +2312,18 @@
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -2302,7 +2335,127 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
